--- a/data/secar_extreme_vals.xlsx
+++ b/data/secar_extreme_vals.xlsx
@@ -545,10 +545,10 @@
         <v>45332.19444444445</v>
       </c>
       <c r="D6" t="n">
-        <v>1038.4</v>
+        <v>1040.8</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44967.91666666666</v>
+        <v>45642.4375</v>
       </c>
     </row>
     <row r="7">
